--- a/biology/Botanique/Pseudotsuga_menziesii/Pseudotsuga_menziesii.xlsx
+++ b/biology/Botanique/Pseudotsuga_menziesii/Pseudotsuga_menziesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudotsuga menziesii est une espèce de conifère de la famille des Pinaceae, originaire de l'ouest de l'Amérique du Nord[1]. En français on l’appelle douglas ou sapin de Douglas (bien qu'il n'appartienne pas au genre Abies), mais aussi pin d'Oregon et douglas de Menzies.
-C'est un arbre à croissance rapide qui peut atteindre de très grandes dimensions, jusqu’à 100 m de haut, et son bois possède de très bonnes qualités techniques. Le bois d’œuvre est surtout utilisé en construction extérieure et intérieure, mais aussi pour la décoration[2],[3]. C'est l'une des essences les plus importantes pour l'exploitation forestière et l'industrie du bois en Amérique du Nord. Il prend aussi de l'importance aujourd'hui en Europe où son implantation massive entraine une controverse sur le plan écologique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudotsuga menziesii est une espèce de conifère de la famille des Pinaceae, originaire de l'ouest de l'Amérique du Nord. En français on l’appelle douglas ou sapin de Douglas (bien qu'il n'appartienne pas au genre Abies), mais aussi pin d'Oregon et douglas de Menzies.
+C'est un arbre à croissance rapide qui peut atteindre de très grandes dimensions, jusqu’à 100 m de haut, et son bois possède de très bonnes qualités techniques. Le bois d’œuvre est surtout utilisé en construction extérieure et intérieure, mais aussi pour la décoration,. C'est l'une des essences les plus importantes pour l'exploitation forestière et l'industrie du bois en Amérique du Nord. Il prend aussi de l'importance aujourd'hui en Europe où son implantation massive entraine une controverse sur le plan écologique.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distribution naturelle du douglas est assez vaste dans l'Ouest de l'Amérique du Nord[1], et se divise en deux grandes parties correspondant aux deux variétés principales. La variété menziesii s'étend sur la Côte ouest où elle est un élément majeur des forêts de conifères géants du littoral du Pacifique, depuis la Californie aux États-Unis jusqu'à la Colombie-Britannique au Canada. La variété glauca s'étend à l'intérieur du continent et de manière plus dispersée, de l'intérieur de la Colombie-Britannique et de l'ouest de l'Alberta, au Canada, jusqu'au nord du Mexique, en passant à travers les États-Unis le long des montagnes Rocheuses. Dans ces deux parties de son aire de répartition, il est présent en plaine et à basse altitude au nord et monte de plus en plus en altitude vers le sud.
-Il a été introduit en Europe dès 1827[1] par le botaniste écossais David Douglas, et en France à partir de 1842. La variété menziesii ayant besoin d'un climat à influence océanique, elle s'est bien adaptée à l'Europe où elle connait depuis le XXe siècle une utilisation importante en reboisement et en sylviculture. Elle a été l'objet de plantations notamment en France au cours des trois dernières décennies du XXe siècle, sous l'impulsion du Fonds forestier national, de sorte qu'elle est devenue la deuxième essence de reboisement du pays, couvrant aujourd'hui 420 000 hectares[4], surtout dans le Massif central : Morvan, Auvergne, Limousin[5], Beaujolais, et dans les Vosges, ainsi qu'en plaine dans la moitié nord. Elle est aussi beaucoup plantée en Allemagne (dans tout le pays, mais surtout dans le quart sud-ouest), dans les îles Britanniques, en Italie (dans les Apennins), en Tchéquie, en Belgique (notamment dans l'Ardenne, mais aussi en plaine), aux Pays-Bas et au Danemark. On peut désormais rencontrer le douglas des Highlands en Écosse jusqu'aux pentes de l'Etna en Sicile, des monts du Portugal aux plaines de Pologne, et à l'est jusqu'aux Carpates.
-Il est aussi planté dans l'hémisphère Sud : Australie, Nouvelle-Zélande, Afrique du Sud et Amérique du Sud[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distribution naturelle du douglas est assez vaste dans l'Ouest de l'Amérique du Nord, et se divise en deux grandes parties correspondant aux deux variétés principales. La variété menziesii s'étend sur la Côte ouest où elle est un élément majeur des forêts de conifères géants du littoral du Pacifique, depuis la Californie aux États-Unis jusqu'à la Colombie-Britannique au Canada. La variété glauca s'étend à l'intérieur du continent et de manière plus dispersée, de l'intérieur de la Colombie-Britannique et de l'ouest de l'Alberta, au Canada, jusqu'au nord du Mexique, en passant à travers les États-Unis le long des montagnes Rocheuses. Dans ces deux parties de son aire de répartition, il est présent en plaine et à basse altitude au nord et monte de plus en plus en altitude vers le sud.
+Il a été introduit en Europe dès 1827 par le botaniste écossais David Douglas, et en France à partir de 1842. La variété menziesii ayant besoin d'un climat à influence océanique, elle s'est bien adaptée à l'Europe où elle connait depuis le XXe siècle une utilisation importante en reboisement et en sylviculture. Elle a été l'objet de plantations notamment en France au cours des trois dernières décennies du XXe siècle, sous l'impulsion du Fonds forestier national, de sorte qu'elle est devenue la deuxième essence de reboisement du pays, couvrant aujourd'hui 420 000 hectares, surtout dans le Massif central : Morvan, Auvergne, Limousin, Beaujolais, et dans les Vosges, ainsi qu'en plaine dans la moitié nord. Elle est aussi beaucoup plantée en Allemagne (dans tout le pays, mais surtout dans le quart sud-ouest), dans les îles Britanniques, en Italie (dans les Apennins), en Tchéquie, en Belgique (notamment dans l'Ardenne, mais aussi en plaine), aux Pays-Bas et au Danemark. On peut désormais rencontrer le douglas des Highlands en Écosse jusqu'aux pentes de l'Etna en Sicile, des monts du Portugal aux plaines de Pologne, et à l'est jusqu'aux Carpates.
+Il est aussi planté dans l'hémisphère Sud : Australie, Nouvelle-Zélande, Afrique du Sud et Amérique du Sud.
 </t>
         </is>
       </c>
@@ -547,11 +561,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-La variété menziesii de la côte du Pacifique atteint une taille adulte moyenne comprise entre 50 et 80 m de hauteur pour un diamètre de 2 m dans ses régions d'origine[1]. Il pousse rapidement mais peut vivre entre 400 et 500 ans[1] et quelques-uns atteignent le millénaire.
-Dans la nature, il peut atteindre de très grandes dimensions : des spécimens de 100 m de haut étaient rarement trouvés et récoltés au début du XXe siècle, mais des individus de 75 m de haut et 2 à 3 m de diamètre étaient courants au Canada[7]. Le plus haut douglas actuel est le Doerner Fir en Oregon aux États-Unis, avec une hauteur de 100,3 m en 1991 (les différentes mesures depuis tournent autour de 100 m), pour un tronc de 3,5 m de diamètre. Des spécimens plus hauts sont cités dans le passé, mais leur mesure est souvent mise en doute (l'un, le Lynn Valley Tree au Canada, de 126 m et un autre plus douteux, le Nooksack Giant dans l'état de Washington aux États-Unis, de 142 m). Un spécimen beaucoup mieux documenté, le Mineral Tree, est tombé en 1930 dans l'état de Washington. Ce dernier a été mesuré plusieurs fois à partir de 1911, notamment en 1925, avec une hauteur de 393 pieds (près de 120 m)[8]. Le douglas est donc un sérieux candidat au titre de plus haute espèce d'arbre du monde de l'époque moderne, mais actuellement l'espèce la plus haute du monde est de loin Sequoia sempervirens.
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété menziesii de la côte du Pacifique atteint une taille adulte moyenne comprise entre 50 et 80 m de hauteur pour un diamètre de 2 m dans ses régions d'origine. Il pousse rapidement mais peut vivre entre 400 et 500 ans et quelques-uns atteignent le millénaire.
+Dans la nature, il peut atteindre de très grandes dimensions : des spécimens de 100 m de haut étaient rarement trouvés et récoltés au début du XXe siècle, mais des individus de 75 m de haut et 2 à 3 m de diamètre étaient courants au Canada. Le plus haut douglas actuel est le Doerner Fir en Oregon aux États-Unis, avec une hauteur de 100,3 m en 1991 (les différentes mesures depuis tournent autour de 100 m), pour un tronc de 3,5 m de diamètre. Des spécimens plus hauts sont cités dans le passé, mais leur mesure est souvent mise en doute (l'un, le Lynn Valley Tree au Canada, de 126 m et un autre plus douteux, le Nooksack Giant dans l'état de Washington aux États-Unis, de 142 m). Un spécimen beaucoup mieux documenté, le Mineral Tree, est tombé en 1930 dans l'état de Washington. Ce dernier a été mesuré plusieurs fois à partir de 1911, notamment en 1925, avec une hauteur de 393 pieds (près de 120 m). Le douglas est donc un sérieux candidat au titre de plus haute espèce d'arbre du monde de l'époque moderne, mais actuellement l'espèce la plus haute du monde est de loin Sequoia sempervirens.
 Le douglas le plus volumineux est actuellement le Red Creek Fir sur l'île de Vancouver au Canada, avec un diamètre de 4,2 m, une hauteur de 73,8 m (il lui manque sa cime) pour un volume de 349 m3. Son âge est estimé à environ un millénaire. Un autre spécimen impressionnant du Canada est le Big Lonely Doug, aussi sur l'île de Vancouver, préservé et solitaire au milieu d'une coupe rase récente, entièrement visible, ce qui l'a rendu célèbre. Il est d'ailleurs le deuxième plus gros douglas répertorié dans le pays.
-Les trois plus grands arbres de France métropolitaine seraient tous des douglas : le plus grand, haut de 66,60 m en 2015, est situé à proximité de la retenue d'eau du barrage du Chartrain dans la Loire, le suivant (64,10 m en 2020) à l'arboretum de La Jonchère-Saint-Maurice dans la Haute-Vienne, et le troisième (63,50 m en 2020) à Haspelschiedt dans la Moselle[9]. D'autres spécimens dans divers départements dépassent désormais les 60 m et le classement évolue régulièrement. Tous sont issus des premières plantations de douglas en France de la fin du XIXe siècle, encore peu nombreuses à cette époque et en petits groupes. Ces arbres sont donc jeunes comparés aux grands spécimens d'Amérique du Nord. Ils sont encore en phase de croissance soutenue et sont généralement plus hauts à chaque nouvelle mesure. La plupart des plantations en France sont plus récentes et moins hautes. On doit donc s'attendre en ce XXIe siècle à des hauteurs records de plus en plus importantes. Ils ne détiennent cependant pas les records de France de diamètres de tronc ou d'âge[10].
+Les trois plus grands arbres de France métropolitaine seraient tous des douglas : le plus grand, haut de 66,60 m en 2015, est situé à proximité de la retenue d'eau du barrage du Chartrain dans la Loire, le suivant (64,10 m en 2020) à l'arboretum de La Jonchère-Saint-Maurice dans la Haute-Vienne, et le troisième (63,50 m en 2020) à Haspelschiedt dans la Moselle. D'autres spécimens dans divers départements dépassent désormais les 60 m et le classement évolue régulièrement. Tous sont issus des premières plantations de douglas en France de la fin du XIXe siècle, encore peu nombreuses à cette époque et en petits groupes. Ces arbres sont donc jeunes comparés aux grands spécimens d'Amérique du Nord. Ils sont encore en phase de croissance soutenue et sont généralement plus hauts à chaque nouvelle mesure. La plupart des plantations en France sont plus récentes et moins hautes. On doit donc s'attendre en ce XXIe siècle à des hauteurs records de plus en plus importantes. Ils ne détiennent cependant pas les records de France de diamètres de tronc ou d'âge.
 La variété glauca, de l’intérieur du continent nord-américain, est moins grande, avec une hauteur à maturité se situant entre 35 et 45 m pour un maximum de 67 m.
 </t>
         </is>
